--- a/images/fig.xlsx
+++ b/images/fig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\b\docs\流星と昴の日本神話\第二十版\materials\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\b\docs\流星と昴の日本神話\meteors\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2795EC8-C7FC-46C2-90A6-62AB23839358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA2BBB-F27D-4B86-9044-EB415DF318A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3435" yWindow="165" windowWidth="24810" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,7 +903,7 @@
               <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
-            <a:t>蛇韓鋤之剣</a:t>
+            <a:t>素戔嗚尊の剣</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/images/fig.xlsx
+++ b/images/fig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\b\docs\流星と昴の日本神話\meteors\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA2BBB-F27D-4B86-9044-EB415DF318A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F451D48-E3CA-41BB-B7AA-94793D61D554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="165" windowWidth="24810" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="誓約" sheetId="7" r:id="rId1"/>
@@ -224,13 +224,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>422479</xdr:colOff>
+      <xdr:colOff>155779</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>24429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244654</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>663754</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>191364</xdr:rowOff>
     </xdr:to>
@@ -247,7 +247,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3165679" y="1929429"/>
+          <a:off x="2898979" y="1929429"/>
           <a:ext cx="2565375" cy="405060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1128,13 +1128,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>422479</xdr:colOff>
+      <xdr:colOff>155779</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>24429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244654</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>663754</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>191364</xdr:rowOff>
     </xdr:to>
@@ -1151,7 +1151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3165679" y="1929429"/>
+          <a:off x="2898979" y="1929429"/>
           <a:ext cx="2565375" cy="405060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1965,12 +1965,12 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1987,8 +1987,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2743200" y="2533650"/>
-          <a:ext cx="2190751" cy="5953125"/>
+          <a:off x="2743200" y="638175"/>
+          <a:ext cx="2895600" cy="7848600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2015,12 +2015,12 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -2037,8 +2037,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1266825" y="3228975"/>
-          <a:ext cx="4438650" cy="5238750"/>
+          <a:off x="1266825" y="466725"/>
+          <a:ext cx="6800850" cy="8001000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2063,10 +2063,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -2087,8 +2087,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3438525" y="2590800"/>
-          <a:ext cx="457200" cy="2800350"/>
+          <a:off x="3124200" y="523875"/>
+          <a:ext cx="771525" cy="4867275"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2232,13 +2232,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>422479</xdr:colOff>
+      <xdr:colOff>155779</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>24429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244654</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>663754</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>191364</xdr:rowOff>
     </xdr:to>
@@ -2255,7 +2255,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3165679" y="1929429"/>
+          <a:off x="2898979" y="1929429"/>
           <a:ext cx="2565375" cy="405060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">

--- a/images/fig.xlsx
+++ b/images/fig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\b\docs\流星と昴の日本神話\meteors\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F451D48-E3CA-41BB-B7AA-94793D61D554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34770EDC-8AED-49AD-A137-082B7CBA7617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="25200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="誓約" sheetId="7" r:id="rId1"/>
@@ -714,15 +714,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>452476</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>442789</xdr:colOff>
+      <xdr:colOff>271501</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>24185</xdr:rowOff>
+      <xdr:rowOff>176585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -737,8 +737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2509876" y="4857875"/>
-          <a:ext cx="1361913" cy="405060"/>
+          <a:off x="2328901" y="4381500"/>
+          <a:ext cx="1785899" cy="1033835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -773,6 +773,34 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
             <a:t>三つ星</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>からすき星</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1617,74 +1645,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>452476</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>442789</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>24185</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F0AF21-4146-42D6-AB1F-E8FC3A8B6F5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2509876" y="4857875"/>
-          <a:ext cx="1361913" cy="405060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="none">
-              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>三つ星</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -1889,6 +1849,102 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
             <a:t>五百箇磐石・天岩戸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4724</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F230048-3167-4B45-949B-35090018E8FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="4381500"/>
+          <a:ext cx="1785899" cy="1033835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>三つ星</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>からすき星</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2721,74 +2777,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>452476</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>442789</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>24185</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0036BF0D-190F-4151-B0FC-8A452DA70542}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2509876" y="4857875"/>
-          <a:ext cx="1361913" cy="405060"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="none">
-              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
-            </a:rPr>
-            <a:t>三つ星</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>4</xdr:row>
@@ -2993,6 +2981,102 @@
               <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
             </a:rPr>
             <a:t>天岩戸</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4724</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>176585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA5D877-FAF7-41B5-8E8C-3C1DEEABF20B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2333625" y="4381500"/>
+          <a:ext cx="1785899" cy="1033835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>三つ星</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+            <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>からすき星</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" u="none">
+              <a:latin typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+              <a:ea typeface="游明朝" panose="02020400000000000000" pitchFamily="18" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
